--- a/Experiments/Part1-Uniform-MajorMinor/Random/MajorMinor Results/Graphs.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Random/MajorMinor Results/Graphs.xlsx
@@ -2875,20 +2875,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2107815224"/>
-        <c:axId val="-2108435688"/>
+        <c:axId val="2094639256"/>
+        <c:axId val="2094485336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107815224"/>
+        <c:axId val="2094639256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108435688"/>
+        <c:crossAx val="2094485336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2896,18 +2915,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108435688"/>
+        <c:axId val="2094485336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107815224"/>
+        <c:crossAx val="2094639256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5639,20 +5677,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2098010648"/>
-        <c:axId val="-2098007560"/>
+        <c:axId val="2112025960"/>
+        <c:axId val="2111850488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098010648"/>
+        <c:axId val="2112025960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098007560"/>
+        <c:crossAx val="2111850488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5660,18 +5722,60 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098007560"/>
+        <c:axId val="2111850488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Accumulated </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Payoff</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098010648"/>
+        <c:crossAx val="2112025960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6259,20 +6363,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113287016"/>
-        <c:axId val="-2112991368"/>
+        <c:axId val="2097867160"/>
+        <c:axId val="2112239384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113287016"/>
+        <c:axId val="2097867160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112991368"/>
+        <c:crossAx val="2112239384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6280,18 +6403,55 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112991368"/>
+        <c:axId val="2112239384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accumulated </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113287016"/>
+        <c:crossAx val="2097867160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6413,23 +6573,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6437,15 +6597,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6773,7 +6933,7 @@
   <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AE1:AF1048576"/>
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11470,7 +11630,7 @@
         <v>166.8</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE101" si="2" xml:space="preserve"> (A67+D67+G67+J67+M67+P67+S67+V67+Y67+AB67) / 10</f>
+        <f t="shared" ref="AE67:AE81" si="2" xml:space="preserve"> (A67+D67+G67+J67+M67+P67+S67+V67+Y67+AB67) / 10</f>
         <v>164.66404761904721</v>
       </c>
       <c r="AF67">
